--- a/docs/FP.xlsx
+++ b/docs/FP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e15298e05a6af3ae/Università/Magistrale/LabAdvProg/Proj/AnimalDEX/AnimalDex/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="410" documentId="11_F25DC773A252ABDACC10485B599A540A5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9722195-560D-40E5-9686-8B0D1ECDC2CA}"/>
+  <xr:revisionPtr revIDLastSave="466" documentId="11_F25DC773A252ABDACC10485B599A540A5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9861B94-B943-4BE1-979F-ECBAB8A74742}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="13260" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -253,10 +253,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -393,6 +392,135 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>577274</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>11546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>230909</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>167792</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Immagine 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F921C7A9-C594-45B0-9618-F336CF4F6F72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="-264" t="34243" r="264" b="36363"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7781638" y="2597728"/>
+          <a:ext cx="6384635" cy="1634064"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600363</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>16214</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Immagine 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63A41579-8954-4990-80E7-30DCAC66D525}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect b="74699"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7804727" y="219363"/>
+          <a:ext cx="6146851" cy="1362364"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>554183</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>23090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>242455</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85138</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Immagine 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F20D6D-E231-4164-A591-F4E17A71E69F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect t="75902"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7758547" y="4825999"/>
+          <a:ext cx="6419272" cy="1355139"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -455,10 +583,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D5D81088-4203-4D34-BA94-825B3D2BF3A7}" name="Tabella6" displayName="Tabella6" ref="B56:B57" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D5D81088-4203-4D34-BA94-825B3D2BF3A7}" name="Tabella6" displayName="Tabella6" ref="B56:B57" totalsRowShown="0" dataDxfId="1">
   <autoFilter ref="B56:B57" xr:uid="{D5D81088-4203-4D34-BA94-825B3D2BF3A7}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{6685D185-E8F7-47BB-91A7-D899B1A548FD}" name="Total amount of FP" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{6685D185-E8F7-47BB-91A7-D899B1A548FD}" name="Total amount of FP" dataDxfId="0">
       <calculatedColumnFormula>SUM(Tabella1[FP],Tabella2[FP],Tabella25[FP],Tabella24[FP])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -732,7 +860,7 @@
   <dimension ref="B2:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
@@ -798,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
@@ -818,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
@@ -838,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
@@ -858,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
@@ -878,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -898,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
@@ -918,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
@@ -938,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
@@ -969,7 +1097,7 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
@@ -983,7 +1111,7 @@
         <v>14</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
@@ -997,7 +1125,7 @@
         <v>6</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -1011,7 +1139,7 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -1025,7 +1153,7 @@
         <v>10</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
@@ -1039,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
@@ -1053,7 +1181,7 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
@@ -1067,7 +1195,7 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
@@ -1081,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
@@ -1095,7 +1223,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
@@ -1109,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
@@ -1123,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
@@ -1137,7 +1265,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
@@ -1151,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
@@ -1165,7 +1293,7 @@
         <v>5</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
@@ -1179,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" s="1"/>
     </row>
@@ -1194,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
@@ -1208,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
@@ -1222,7 +1350,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
@@ -1236,7 +1364,7 @@
         <v>10</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
@@ -1250,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
@@ -1292,7 +1420,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
@@ -1306,7 +1434,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
@@ -1320,7 +1448,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
@@ -1334,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
@@ -1348,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I42" s="1"/>
     </row>
@@ -1378,7 +1506,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
@@ -1392,7 +1520,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G45" s="1"/>
     </row>
@@ -1422,7 +1550,7 @@
         <v>4</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
@@ -1436,7 +1564,7 @@
         <v>11</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
@@ -1450,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
@@ -1478,7 +1606,7 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" s="1"/>
     </row>
@@ -1493,7 +1621,7 @@
         <v>8</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
@@ -1507,7 +1635,7 @@
         <v>6</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
@@ -1516,9 +1644,9 @@
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="2">
+      <c r="B57">
         <f>SUM(Tabella1[FP],Tabella2[FP],Tabella25[FP],Tabella24[FP])</f>
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
